--- a/excel_dentos/02_citas_con_pagos/Citas con pagos FEBRERO 4.xlsx
+++ b/excel_dentos/02_citas_con_pagos/Citas con pagos FEBRERO 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\automatizaciones\excelFormatos\excel_dentos\02_citas_con_pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5672D1CB-EEF0-4F1E-BD9D-5A7695BFFA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1556C3-55D1-4FC8-9D99-FC598FB5BC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4BA15D40-7E46-4AA5-AFAB-B5933B0A8F5E}"/>
   </bookViews>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>10585509416</v>
+        <v>1058550941</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -1528,7 +1528,7 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>10585509416</v>
+        <v>1058550941</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
